--- a/Seguimiento/Task Board.xlsx
+++ b/Seguimiento/Task Board.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Backlog</t>
   </si>
@@ -30,21 +30,9 @@
     <t>RF. 009 Generar reportes</t>
   </si>
   <si>
-    <t>RF.010 Generar notificaciones</t>
-  </si>
-  <si>
-    <t>RF. 001-004 ABMs</t>
-  </si>
-  <si>
-    <t>RF.007  Generar Factura</t>
-  </si>
-  <si>
     <t>RF. 008 Registrar pago</t>
   </si>
   <si>
-    <t>RF. 011 Registrar Stock</t>
-  </si>
-  <si>
     <t>Sprint BackLog</t>
   </si>
   <si>
@@ -66,75 +54,9 @@
     <t>Historial</t>
   </si>
   <si>
-    <t>DT. 001 ABM</t>
-  </si>
-  <si>
-    <t>DT. 002 ABM</t>
-  </si>
-  <si>
-    <t>DT. 003 ABM</t>
-  </si>
-  <si>
-    <t>DT. 004 ABM</t>
-  </si>
-  <si>
-    <t>DT. 005 Crear Petición</t>
-  </si>
-  <si>
-    <t>DT. 006 Administrar Petición</t>
-  </si>
-  <si>
-    <t>DT. 007 Generar Factura</t>
-  </si>
-  <si>
-    <t>DT. 008 Registrar pago</t>
-  </si>
-  <si>
-    <t>DT. 009 Generar reportes</t>
-  </si>
-  <si>
-    <t>DT. 010 Generar notificaciones</t>
-  </si>
-  <si>
-    <t>DT. 011 Registrar Stock</t>
-  </si>
-  <si>
     <t>Prioridad</t>
   </si>
   <si>
-    <t>DS. 001 ABM</t>
-  </si>
-  <si>
-    <t>DS. 002 ABM</t>
-  </si>
-  <si>
-    <t>DS. 003 ABM</t>
-  </si>
-  <si>
-    <t>DS. 004 ABM</t>
-  </si>
-  <si>
-    <t>DS. 005 Crear Petición</t>
-  </si>
-  <si>
-    <t>DS. 006 Administrar Petición</t>
-  </si>
-  <si>
-    <t>DS. 007 Generar Factura</t>
-  </si>
-  <si>
-    <t>DS. 008 Registrar pago</t>
-  </si>
-  <si>
-    <t>DS. 009 Generar reportes</t>
-  </si>
-  <si>
-    <t>DS. 010 Generar notificaciones</t>
-  </si>
-  <si>
-    <t>DS. 011 Registrar Stock</t>
-  </si>
-  <si>
     <t>Analisis de Diagramas</t>
   </si>
   <si>
@@ -145,6 +67,63 @@
   </si>
   <si>
     <t>Charla tecnica/Retro</t>
+  </si>
+  <si>
+    <t>Moderadores</t>
+  </si>
+  <si>
+    <t>Santi</t>
+  </si>
+  <si>
+    <t>Ale</t>
+  </si>
+  <si>
+    <t>Buch</t>
+  </si>
+  <si>
+    <t>Warmi</t>
+  </si>
+  <si>
+    <t>Arroyo</t>
+  </si>
+  <si>
+    <t>Dani</t>
+  </si>
+  <si>
+    <t>RF. 001 ABM Cliente</t>
+  </si>
+  <si>
+    <t>RF. 010 Generar notificaciones</t>
+  </si>
+  <si>
+    <t>RF. 002 ABM Vehiculo</t>
+  </si>
+  <si>
+    <t>RF. 003 ABM Equipo</t>
+  </si>
+  <si>
+    <t>RF. 004 ABM Empleado</t>
+  </si>
+  <si>
+    <t>RF. 012 Setup Proyecto</t>
+  </si>
+  <si>
+    <t>RF. 011 Registrar Stock (WS)</t>
+  </si>
+  <si>
+    <t>RF. 007  Generar Factura (WS)</t>
+  </si>
+  <si>
+    <t>RF 005.- Crear Peticion</t>
+  </si>
+  <si>
+    <t>RF 006.- Crear Trabajo</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Estimacion</t>
   </si>
 </sst>
 </file>
@@ -166,7 +145,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,8 +170,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -252,11 +237,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -273,6 +326,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,314 +631,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K31"/>
+  <dimension ref="B1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1">
-      <c r="G2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+    <row r="1" spans="2:12" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:12" ht="15.75" thickBot="1">
+      <c r="H2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="2:12" ht="15.75" thickBot="1">
       <c r="B3" s="6" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="18"/>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="19">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4">
+    </row>
+    <row r="7" spans="2:12">
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="C8" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="C11" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="12" spans="2:12">
+      <c r="C12" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13">
-        <v>13</v>
-      </c>
+    </row>
+    <row r="13" spans="2:12">
       <c r="C13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14">
-        <v>14</v>
-      </c>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
       <c r="C14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15">
-        <v>15</v>
-      </c>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
       <c r="C15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22">
-        <v>22</v>
-      </c>
-      <c r="C22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
-      <c r="B23">
-        <v>23</v>
-      </c>
-      <c r="C23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27">
-        <v>27</v>
-      </c>
-      <c r="C27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28">
-        <v>28</v>
-      </c>
-      <c r="C28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29">
-        <v>29</v>
-      </c>
-      <c r="C29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30">
-        <v>30</v>
-      </c>
-      <c r="C30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31">
-        <v>31</v>
-      </c>
-      <c r="C31" t="s">
-        <v>38</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="B4:C15">
+    <sortCondition ref="C4"/>
+  </sortState>
   <mergeCells count="1">
-    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="H2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -883,12 +803,104 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="12">
+        <v>41913</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="13">
+        <v>41920</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="13">
+        <v>41927</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="13">
+        <v>41934</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="13">
+        <v>41941</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="13">
+        <v>41948</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="13">
+        <v>41955</v>
+      </c>
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="13">
+        <v>41962</v>
+      </c>
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="13">
+        <v>41969</v>
+      </c>
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="13">
+        <v>41976</v>
+      </c>
+      <c r="C12" s="16"/>
+    </row>
+    <row r="13" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B13" s="14">
+        <v>41983</v>
+      </c>
+      <c r="C13" s="17"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Seguimiento/Task Board.xlsx
+++ b/Seguimiento/Task Board.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Backlog</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Estimacion</t>
+  </si>
+  <si>
+    <t>Complejidades</t>
   </si>
 </sst>
 </file>
@@ -177,7 +180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -305,11 +308,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -317,6 +351,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -326,17 +368,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -651,11 +690,11 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:12" ht="15.75" thickBot="1">
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="17"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1">
       <c r="B3" s="6" t="s">
@@ -664,7 +703,9 @@
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="18"/>
+      <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
@@ -682,10 +723,11 @@
       </c>
     </row>
     <row r="4" spans="2:12">
-      <c r="C4" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="19">
         <v>3</v>
       </c>
       <c r="F4" t="s">
@@ -699,10 +741,11 @@
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="C5" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="21">
         <v>8</v>
       </c>
       <c r="F5" t="s">
@@ -716,10 +759,11 @@
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="C6" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="22">
         <v>5</v>
       </c>
       <c r="F6" t="s">
@@ -733,10 +777,11 @@
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="C7" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="21">
         <v>5</v>
       </c>
       <c r="H7" t="s">
@@ -744,50 +789,64 @@
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="21" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="C9" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="C10" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="13" t="s">
         <v>31</v>
       </c>
+      <c r="D10" s="21"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="C11" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="13" t="s">
         <v>4</v>
       </c>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="2:12">
-      <c r="C12" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="13" t="s">
         <v>3</v>
       </c>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="2:12">
-      <c r="C13" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="13" t="s">
         <v>25</v>
       </c>
+      <c r="D13" s="21"/>
     </row>
     <row r="14" spans="2:12">
-      <c r="C14" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="C15" t="s">
+      <c r="D14" s="21"/>
+    </row>
+    <row r="15" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B15" s="23"/>
+      <c r="C15" s="14" t="s">
         <v>29</v>
       </c>
+      <c r="D15" s="24"/>
     </row>
   </sheetData>
   <sortState ref="B4:C15">
@@ -817,88 +876,88 @@
   <sheetData>
     <row r="1" spans="2:3" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="12">
+      <c r="B3" s="9">
         <v>41913</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="13">
+      <c r="B4" s="10">
         <v>41920</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="13">
+      <c r="B5" s="10">
         <v>41927</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="13">
+      <c r="B6" s="10">
         <v>41934</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="13">
+      <c r="B7" s="10">
         <v>41941</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="13">
+      <c r="B8" s="10">
         <v>41948</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="13">
+      <c r="B9" s="10">
         <v>41955</v>
       </c>
-      <c r="C9" s="16"/>
+      <c r="C9" s="13"/>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="13">
+      <c r="B10" s="10">
         <v>41962</v>
       </c>
-      <c r="C10" s="16"/>
+      <c r="C10" s="13"/>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="13">
+      <c r="B11" s="10">
         <v>41969</v>
       </c>
-      <c r="C11" s="16"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="13">
+      <c r="B12" s="10">
         <v>41976</v>
       </c>
-      <c r="C12" s="16"/>
+      <c r="C12" s="13"/>
     </row>
     <row r="13" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B13" s="14">
+      <c r="B13" s="11">
         <v>41983</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Seguimiento/Task Board.xlsx
+++ b/Seguimiento/Task Board.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15315" windowHeight="7590"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15315" windowHeight="7260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Moderadores" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>Backlog</t>
   </si>
@@ -33,9 +33,6 @@
     <t>RF. 008 Registrar pago</t>
   </si>
   <si>
-    <t>Sprint BackLog</t>
-  </si>
-  <si>
     <t>Para Hacer</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>RF. 004 ABM Empleado</t>
   </si>
   <si>
-    <t>RF. 012 Setup Proyecto</t>
-  </si>
-  <si>
     <t>RF. 011 Registrar Stock (WS)</t>
   </si>
   <si>
@@ -127,6 +121,72 @@
   </si>
   <si>
     <t>Complejidades</t>
+  </si>
+  <si>
+    <t>Esto pertenece al sistema de facturación</t>
+  </si>
+  <si>
+    <t>Pertenece al sist. De stock</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Calificar cuando se especifique</t>
+  </si>
+  <si>
+    <t>Pedir y reponer stock</t>
+  </si>
+  <si>
+    <t>RF. 012.1 Setup Proyecto BBDD</t>
+  </si>
+  <si>
+    <t>RF. 012.2 Setup Proyecto Aplicación</t>
+  </si>
+  <si>
+    <t>RF.013 Automatización de Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linux </t>
+  </si>
+  <si>
+    <t>Postgres</t>
+  </si>
+  <si>
+    <t>Ruby</t>
+  </si>
+  <si>
+    <t>Rails</t>
+  </si>
+  <si>
+    <t>Selenium \ Otro</t>
+  </si>
+  <si>
+    <t>UML \ Diagramas</t>
+  </si>
+  <si>
+    <t>Jquery \ Javascript</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herramientas de reporte </t>
+  </si>
+  <si>
+    <t>Sprint 0</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Uml \ Diagramas</t>
+  </si>
+  <si>
+    <t>Setup Proyecto BBDD</t>
+  </si>
+  <si>
+    <t>Linux</t>
   </si>
 </sst>
 </file>
@@ -180,7 +240,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -328,22 +388,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -359,6 +408,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -368,14 +424,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -670,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:L15"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -681,7 +735,7 @@
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
@@ -690,163 +744,323 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:12" ht="15.75" thickBot="1">
-      <c r="H2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17"/>
+      <c r="H2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="23"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1">
       <c r="B3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="L3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="18"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="19">
+        <v>30</v>
+      </c>
+      <c r="D4" s="16">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="20"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="18">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="21">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="20"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="22">
+        <v>23</v>
+      </c>
+      <c r="D6" s="19">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B7" s="17"/>
+      <c r="C7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="18">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
         <v>15</v>
       </c>
-      <c r="L6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="20"/>
-      <c r="C7" s="13" t="s">
+    </row>
+    <row r="8" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B8" s="17"/>
+      <c r="C8" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D8" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="17"/>
+      <c r="C9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="18">
         <v>5</v>
       </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="20"/>
-      <c r="C8" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="20"/>
-      <c r="C9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="21">
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="17"/>
+      <c r="C10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="18">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="20"/>
-      <c r="C10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="21"/>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="20"/>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="21"/>
+      <c r="D11" s="18"/>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="20"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="21"/>
+      <c r="D12" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="20"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="21"/>
+        <v>24</v>
+      </c>
+      <c r="D13" s="18">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="20"/>
+      <c r="B14" s="17">
+        <v>11</v>
+      </c>
       <c r="C14" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="21"/>
-    </row>
-    <row r="15" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B15" s="23"/>
-      <c r="C15" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="24"/>
+        <v>28</v>
+      </c>
+      <c r="D14" s="18">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="17">
+        <v>2</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="17">
+        <v>5</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="26"/>
+      <c r="B17" s="17">
+        <v>9</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="28">
+        <v>20</v>
+      </c>
+      <c r="E17" s="26"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="B18" s="17">
+        <v>3</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19" s="17">
+        <v>4</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" s="17">
+        <v>6</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" s="17">
+        <v>7</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" s="17">
+        <v>10</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" s="17"/>
+      <c r="C23" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" s="17">
+        <v>1</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" s="17">
+        <v>8</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B26" s="20"/>
+      <c r="C26" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="14">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="B4:C15">
@@ -864,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -877,7 +1091,7 @@
     <row r="1" spans="2:3" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:3" ht="15.75" thickBot="1">
       <c r="B2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -886,7 +1100,7 @@
         <v>41913</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:3">
@@ -894,7 +1108,7 @@
         <v>41920</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -902,7 +1116,7 @@
         <v>41927</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:3">
@@ -910,7 +1124,7 @@
         <v>41934</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:3">
@@ -918,7 +1132,7 @@
         <v>41941</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -926,7 +1140,7 @@
         <v>41948</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:3">

--- a/Seguimiento/Task Board.xlsx
+++ b/Seguimiento/Task Board.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15315" windowHeight="7260" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15315" windowHeight="7260" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Moderadores" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Nuevo Backlog" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
   <si>
     <t>Backlog</t>
   </si>
@@ -57,12 +57,6 @@
     <t>Analisis de Diagramas</t>
   </si>
   <si>
-    <t>Analisis RF 005</t>
-  </si>
-  <si>
-    <t>Analisis RF 006</t>
-  </si>
-  <si>
     <t>Charla tecnica/Retro</t>
   </si>
   <si>
@@ -187,6 +181,57 @@
   </si>
   <si>
     <t>Linux</t>
+  </si>
+  <si>
+    <t>Patrones de diseño</t>
+  </si>
+  <si>
+    <t>Patrones de arquitectura</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>jquery</t>
+  </si>
+  <si>
+    <t>angular.js</t>
+  </si>
+  <si>
+    <t>optimizacion SQL</t>
+  </si>
+  <si>
+    <t>html 5</t>
+  </si>
+  <si>
+    <t>Base de Datos NoSQL</t>
+  </si>
+  <si>
+    <t>Solr vs Sphinx</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>BPMN</t>
+  </si>
+  <si>
+    <t>ruby/rails</t>
+  </si>
+  <si>
+    <t>Gestion?</t>
+  </si>
+  <si>
+    <t>PMI</t>
+  </si>
+  <si>
+    <t>Standares de Calidad</t>
+  </si>
+  <si>
+    <t>Metodologias agiles</t>
   </si>
 </sst>
 </file>
@@ -392,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -415,6 +460,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -424,12 +475,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -739,16 +787,17 @@
     <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:12" ht="15.75" thickBot="1">
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="28"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1">
       <c r="B3" s="6" t="s">
@@ -758,10 +807,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>5</v>
@@ -779,7 +828,7 @@
     <row r="4" spans="2:12">
       <c r="B4" s="15"/>
       <c r="C4" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="16">
         <v>3</v>
@@ -788,7 +837,13 @@
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>52</v>
+      </c>
+      <c r="I4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" t="s">
+        <v>53</v>
       </c>
       <c r="L4" t="s">
         <v>1</v>
@@ -797,16 +852,16 @@
     <row r="5" spans="2:12">
       <c r="B5" s="17"/>
       <c r="C5" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="18">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="L5" t="s">
         <v>2</v>
@@ -815,16 +870,13 @@
     <row r="6" spans="2:12">
       <c r="B6" s="17"/>
       <c r="C6" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="19">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L6" t="s">
         <v>8</v>
@@ -833,52 +885,49 @@
     <row r="7" spans="2:12" ht="15.75" thickBot="1">
       <c r="B7" s="17"/>
       <c r="C7" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="18">
         <v>5</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="15.75" thickBot="1">
       <c r="B8" s="17"/>
       <c r="C8" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="17"/>
       <c r="C9" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="18">
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="17"/>
       <c r="C10" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="18">
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="2:12">
@@ -888,10 +937,10 @@
       </c>
       <c r="D11" s="18"/>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="2:12">
@@ -899,20 +948,20 @@
       <c r="C12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>37</v>
+      <c r="D12" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="17"/>
       <c r="C13" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="18">
         <v>13</v>
@@ -923,13 +972,13 @@
         <v>11</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" s="18">
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="2:12">
@@ -937,7 +986,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" s="18">
         <v>20</v>
@@ -948,33 +997,33 @@
         <v>5</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" s="18">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="26"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="17">
         <v>9</v>
       </c>
-      <c r="C17" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="28">
+      <c r="C17" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="25">
         <v>20</v>
       </c>
-      <c r="E17" s="26"/>
+      <c r="E17" s="23"/>
     </row>
     <row r="18" spans="1:5">
       <c r="B18" s="17">
         <v>3</v>
       </c>
-      <c r="C18" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="28">
+      <c r="C18" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="25">
         <v>5</v>
       </c>
     </row>
@@ -982,10 +1031,10 @@
       <c r="B19" s="17">
         <v>4</v>
       </c>
-      <c r="C19" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="28">
+      <c r="C19" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="25">
         <v>5</v>
       </c>
     </row>
@@ -993,10 +1042,10 @@
       <c r="B20" s="17">
         <v>6</v>
       </c>
-      <c r="C20" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="28">
+      <c r="C20" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="25">
         <v>20</v>
       </c>
     </row>
@@ -1004,10 +1053,10 @@
       <c r="B21" s="17">
         <v>7</v>
       </c>
-      <c r="C21" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="28">
+      <c r="C21" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="25">
         <v>20</v>
       </c>
     </row>
@@ -1015,19 +1064,19 @@
       <c r="B22" s="17">
         <v>10</v>
       </c>
-      <c r="C22" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="28">
+      <c r="C22" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="25">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="B23" s="17"/>
-      <c r="C23" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="28">
+      <c r="C23" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="25">
         <v>20</v>
       </c>
     </row>
@@ -1035,10 +1084,10 @@
       <c r="B24" s="17">
         <v>1</v>
       </c>
-      <c r="C24" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="28">
+      <c r="C24" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="25">
         <v>13</v>
       </c>
     </row>
@@ -1046,17 +1095,17 @@
       <c r="B25" s="17">
         <v>8</v>
       </c>
-      <c r="C25" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="28">
+      <c r="C25" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="25">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1">
       <c r="B26" s="20"/>
       <c r="C26" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D26" s="14">
         <v>13</v>
@@ -1078,7 +1127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1091,7 +1140,7 @@
     <row r="1" spans="2:3" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:3" ht="15.75" thickBot="1">
       <c r="B2" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -1100,7 +1149,7 @@
         <v>41913</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:3">
@@ -1108,7 +1157,7 @@
         <v>41920</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -1116,7 +1165,7 @@
         <v>41927</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:3">
@@ -1124,7 +1173,7 @@
         <v>41934</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:3">
@@ -1132,7 +1181,7 @@
         <v>41941</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -1140,7 +1189,7 @@
         <v>41948</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -1180,12 +1229,109 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="C3:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:3" ht="15.75" thickBot="1"/>
+    <row r="4" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C4" s="29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>